--- a/co2_emission.xlsx
+++ b/co2_emission.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t xml:space="preserve">Series Name</t>
   </si>
@@ -38,9 +38,69 @@
     <t xml:space="preserve">1990 [YR1990]</t>
   </si>
   <si>
+    <t xml:space="preserve">1991 [YR1991]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992 [YR1992]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993 [YR1993]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994 [YR1994]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995 [YR1995]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996 [YR1996]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997 [YR1997]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998 [YR1998]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999 [YR1999]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000 [YR2000]</t>
   </si>
   <si>
+    <t xml:space="preserve">2001 [YR2001]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002 [YR2002]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003 [YR2003]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004 [YR2004]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005 [YR2005]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006 [YR2006]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007 [YR2007]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008 [YR2008]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009 [YR2009]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010 [YR2010]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011 [YR2011]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2012 [YR2012]</t>
   </si>
   <si>
@@ -65,31 +125,22 @@
     <t xml:space="preserve">2019 [YR2019]</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 [YR2020]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021 [YR2021]</t>
-  </si>
-  <si>
     <t xml:space="preserve">CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
     <t xml:space="preserve">EN.ATM.CO2E.PC</t>
   </si>
   <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBR</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -272,15 +323,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="7:8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ6" activeCellId="0" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -329,116 +380,278 @@
       <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>9.81299019315854</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>9.93784977968702</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>9.688886854246</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>9.37964310785425</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>9.24864961126829</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>9.07995187096372</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>9.37783397616688</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>8.98863819259147</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>8.9934298549488</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>8.90811234824385</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>9.01455828494603</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>9.22298741402037</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>8.94030142534885</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>9.10414144781345</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>9.05315858404864</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>8.95545004366562</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>8.90860027785501</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>8.65098976862687</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>8.33789163921445</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>7.49065398801783</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>7.68628233356203</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>7.04391999055769</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>7.34346028155944</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>7.07581833313405</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>6.4332077800625</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>6.15944833302231</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>5.80400475200463</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>5.55565151375079</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>5.42774817696291</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>5.22051448799294</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>0.647456600903509</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F3" s="0" t="n">
+        <v>0.683093122694981</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.690070414298503</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.703134979256147</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.725618961172666</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.7651933737954</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.787231552713336</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.81736127343344</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.818721061191099</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.866246951679639</v>
+      </c>
+      <c r="O3" s="0" t="n">
         <v>0.885079459181967</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="P3" s="0" t="n">
+        <v>0.883749500393156</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.897239655011535</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.905455813784659</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0.95547292434205</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.98426456510395</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1.03653798248985</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1.12360191111846</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>1.18035876466035</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1.27887270787419</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>1.3380314013228</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>1.39687530935886</v>
+      </c>
+      <c r="AA3" s="0" t="n">
         <v>1.49820250759146</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>1.52767490656836</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>1.64246765444748</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>1.63132108294725</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>1.63991513931259</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>1.71349676149416</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>1.7910328783681</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>1.77592267295201</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>9.81299019315854</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>9.01455828494603</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>7.34346028155944</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>7.07581833313405</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>6.4332077800625</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>6.15944833302231</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>5.80400475200463</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>5.55565151375079</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>5.42774817696291</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>5.22051448799294</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
     </row>
@@ -446,7 +659,6 @@
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -466,7 +678,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="7:8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,78 +689,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
